--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_gelu.xlsx
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>114.6678161621094</v>
+        <v>106.144416809082</v>
       </c>
       <c r="G2" t="n">
-        <v>45.1802978515625</v>
+        <v>32.25821685791016</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.84587478637695</v>
+        <v>-60.45434951782227</v>
       </c>
       <c r="I2" t="n">
-        <v>71.79403686523438</v>
+        <v>95.51791381835938</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_gelu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,16 +497,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>106.144416809082</v>
+        <v>107.3060150146484</v>
       </c>
       <c r="G2" t="n">
-        <v>32.25821685791016</v>
+        <v>32.4156379699707</v>
       </c>
       <c r="H2" t="n">
-        <v>-60.45434951782227</v>
+        <v>-59.14915466308594</v>
       </c>
       <c r="I2" t="n">
-        <v>95.51791381835938</v>
+        <v>92.85549926757812</v>
       </c>
     </row>
   </sheetData>
